--- a/Data/EC/NIT-8305101362.xlsx
+++ b/Data/EC/NIT-8305101362.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B670DD43-195E-4330-B2E6-C528DAB2CAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C533050-95A9-477A-968C-8E63E551BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D286854B-4533-4262-93E8-B8503618AC7F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4FD56BF7-FFE6-4410-A449-FCA13416FBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,12 +65,69 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73134458</t>
+  </si>
+  <si>
+    <t>ADALBERTO ENRIQUE MENDEZ HOYOS</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>9287387</t>
+  </si>
+  <si>
+    <t>APOLINAR ARTURO PUELLO GRAU</t>
+  </si>
+  <si>
+    <t>7886827</t>
+  </si>
+  <si>
+    <t>EDWIN TORRES IGLESIAS</t>
+  </si>
+  <si>
+    <t>7959093</t>
+  </si>
+  <si>
+    <t>SEGUNDO GAVIRIA AMADOR</t>
+  </si>
+  <si>
     <t>30772957</t>
   </si>
   <si>
     <t>YOLANDA VICTORIA PUELLO GRAU</t>
   </si>
   <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
     <t>1707</t>
   </si>
   <si>
@@ -80,73 +137,22 @@
     <t>JOSE ARMANDO MORENO MUÑOZ</t>
   </si>
   <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1708</t>
   </si>
   <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
     <t>1143379986</t>
   </si>
   <si>
     <t>GUSTAVO LEON BETANCUR MONSALVE</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>73134458</t>
-  </si>
-  <si>
-    <t>ADALBERTO ENRIQUE MENDEZ HOYOS</t>
-  </si>
-  <si>
-    <t>7886827</t>
-  </si>
-  <si>
-    <t>EDWIN TORRES IGLESIAS</t>
-  </si>
-  <si>
-    <t>7959093</t>
-  </si>
-  <si>
-    <t>SEGUNDO GAVIRIA AMADOR</t>
-  </si>
-  <si>
-    <t>1908</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -560,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930A80F4-1CF3-B8EC-48CE-BB13CBD0E037}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F3EA81-EB24-5208-FD4B-BFBDC4C6E051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED47ADC-7155-4972-99FA-416145C85CA5}">
-  <dimension ref="B2:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C9F211-4B59-41D9-AD0F-27931E09510D}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -936,7 +942,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -981,7 +987,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1013,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5347781</v>
+        <v>5400581</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1029,14 +1035,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5">
         <v>16</v>
@@ -1066,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1089,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>120000</v>
+        <v>24266</v>
       </c>
       <c r="G16" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1103,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>240000</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>6000000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1126,19 +1132,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>240000</v>
+        <v>16800</v>
       </c>
       <c r="G18" s="18">
-        <v>6000000</v>
+        <v>900000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1149,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>120000</v>
+        <v>36000</v>
       </c>
       <c r="G19" s="18">
-        <v>3000000</v>
+        <v>900000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1172,19 +1178,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>240000</v>
+        <v>15866</v>
       </c>
       <c r="G20" s="18">
-        <v>6000000</v>
+        <v>850000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1195,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
-        <v>120000</v>
+        <v>34000</v>
       </c>
       <c r="G21" s="18">
-        <v>3000000</v>
+        <v>850000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1218,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>240000</v>
+        <v>27066</v>
       </c>
       <c r="G22" s="18">
-        <v>6000000</v>
+        <v>1450000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1241,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>120000</v>
+        <v>58000</v>
       </c>
       <c r="G23" s="18">
-        <v>3000000</v>
+        <v>1450000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1264,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>240000</v>
+        <v>56000</v>
       </c>
       <c r="G24" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1287,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>120000</v>
@@ -1310,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G26" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1333,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G27" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1356,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>120000</v>
@@ -1379,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>120000</v>
@@ -1402,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G30" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1425,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1448,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G32" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1471,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G33" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1494,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G34" s="18">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1517,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>120000</v>
@@ -1540,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>120000</v>
+        <v>112000</v>
       </c>
       <c r="G36" s="18">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1563,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>240000</v>
@@ -1586,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F38" s="18">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="G38" s="18">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1609,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
         <v>240000</v>
@@ -1632,19 +1638,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>240000</v>
       </c>
       <c r="G40" s="18">
-        <v>828117</v>
+        <v>6000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1655,19 +1661,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>240000</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>6000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1678,19 +1684,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="G42" s="18">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1701,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
-        <v>34000</v>
+        <v>240000</v>
       </c>
       <c r="G43" s="18">
-        <v>850000</v>
+        <v>6000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1724,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>58000</v>
+        <v>240000</v>
       </c>
       <c r="G44" s="18">
-        <v>1450000</v>
+        <v>6000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1747,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
         <v>240000</v>
@@ -1770,19 +1776,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>15866</v>
+        <v>240000</v>
       </c>
       <c r="G46" s="18">
-        <v>850000</v>
+        <v>6000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1793,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
-        <v>56000</v>
+        <v>240000</v>
       </c>
       <c r="G47" s="18">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1816,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F48" s="18">
-        <v>112000</v>
+        <v>240000</v>
       </c>
       <c r="G48" s="18">
         <v>6000000</v>
@@ -1839,19 +1845,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>27066</v>
+        <v>240000</v>
       </c>
       <c r="G49" s="18">
-        <v>1450000</v>
+        <v>6000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1862,75 +1868,121 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="18">
-        <v>15458</v>
+        <v>240000</v>
       </c>
       <c r="G50" s="18">
-        <v>828117</v>
+        <v>6000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="24">
-        <v>24266</v>
-      </c>
-      <c r="G51" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="H57" s="1" t="s">
+      <c r="F51" s="18">
+        <v>240000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>6000000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="18">
+        <v>15458</v>
+      </c>
+      <c r="G52" s="18">
+        <v>828117</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G53" s="24">
+        <v>828117</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H58:J58"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
